--- a/evaluation-metrics/evaluation-sheet-2.xlsx
+++ b/evaluation-metrics/evaluation-sheet-2.xlsx
@@ -402,7 +402,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -437,12 +437,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -553,7 +547,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -570,7 +564,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -579,22 +573,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -606,31 +592,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -650,7 +636,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -658,7 +644,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -749,9 +735,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2475000</xdr:colOff>
+      <xdr:colOff>2474640</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -765,7 +751,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="266760" y="2024640"/>
-          <a:ext cx="5837040" cy="4424400"/>
+          <a:ext cx="5836680" cy="4424040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -786,9 +772,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1023480</xdr:colOff>
+      <xdr:colOff>1023120</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -802,7 +788,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6786000" y="1989000"/>
-          <a:ext cx="5810040" cy="4516920"/>
+          <a:ext cx="5809680" cy="4516560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -823,9 +809,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1208520</xdr:colOff>
+      <xdr:colOff>1208160</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -839,7 +825,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1547640" y="7779240"/>
-          <a:ext cx="8449560" cy="4398840"/>
+          <a:ext cx="8449200" cy="4398480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -860,9 +846,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>356040</xdr:colOff>
+      <xdr:colOff>355680</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -876,7 +862,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1694880" y="23348160"/>
-          <a:ext cx="8744040" cy="4606560"/>
+          <a:ext cx="8743680" cy="4606200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -902,9 +888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2475000</xdr:colOff>
+      <xdr:colOff>2474640</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -918,7 +904,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="266760" y="2024640"/>
-          <a:ext cx="5837040" cy="4424400"/>
+          <a:ext cx="5836680" cy="4424040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -939,9 +925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1023480</xdr:colOff>
+      <xdr:colOff>1023120</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -955,7 +941,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6786000" y="1989000"/>
-          <a:ext cx="5810040" cy="4516920"/>
+          <a:ext cx="5809680" cy="4516560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -976,9 +962,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1208520</xdr:colOff>
+      <xdr:colOff>1208160</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -992,7 +978,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1547640" y="7779240"/>
-          <a:ext cx="8449560" cy="4398840"/>
+          <a:ext cx="8449200" cy="4398480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1013,9 +999,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>356040</xdr:colOff>
+      <xdr:colOff>355680</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1029,7 +1015,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1694880" y="23348160"/>
-          <a:ext cx="8744040" cy="4606560"/>
+          <a:ext cx="8743680" cy="4606200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1052,15 +1038,15 @@
   <dimension ref="B3:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="45.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="45.03"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,7 +1119,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="5" t="n">
@@ -1142,43 +1128,43 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="5" t="n">
         <f aca="false">('activity-tab-1'!E225)</f>
-        <v>38</v>
+        <v>38.25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="5" t="n">
         <f aca="false">(E14/E13)</f>
-        <v>0.926829268292683</v>
+        <v>0.932926829268293</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="5" t="n">
         <f aca="false">(E14/E12)</f>
-        <v>0.844444444444444</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="5" t="n">
         <f aca="false">((2*2+1)*E15*E16/(2*2*E15+E16))</f>
-        <v>0.85972850678733</v>
+        <v>0.865384615384615</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="5" t="n">
@@ -1201,7 +1187,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="5" t="n">
@@ -1210,7 +1196,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="5" t="n">
@@ -1219,7 +1205,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="5" t="n">
@@ -1228,7 +1214,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="5" t="n">
@@ -1237,16 +1223,16 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E27" s="5" t="n">
         <f aca="false">((2*2+1)*E25*E26/(2*2*E25+E26))</f>
         <v>0.871040723981901</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="5" t="n">
@@ -1281,747 +1267,747 @@
   </sheetPr>
   <dimension ref="B1:G225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A177" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F209" activeCellId="0" sqref="F209"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A189" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F208" activeCellId="0" sqref="F208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="25.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="73.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="49.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="25.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="73.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="49.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="20.01"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="10" t="s">
+    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" s="9" customFormat="true" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="12" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="13" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="14"/>
-      <c r="E73" s="15"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="75" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="18"/>
-      <c r="F75" s="19"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="17"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D76" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="21"/>
-      <c r="F76" s="22"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="20"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E77" s="21"/>
-      <c r="F77" s="22"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D78" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E78" s="21"/>
-      <c r="F78" s="22"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="20"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="20" t="s">
+      <c r="D79" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E79" s="21"/>
-      <c r="F79" s="22"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="20" t="s">
+      <c r="D80" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E80" s="21"/>
-      <c r="F80" s="22"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E81" s="21"/>
-      <c r="F81" s="22"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="20"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="20" t="s">
+      <c r="D82" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E82" s="21"/>
-      <c r="F82" s="22"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="20"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E83" s="21"/>
-      <c r="F83" s="22"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="20"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="20" t="s">
+      <c r="D84" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E84" s="21"/>
-      <c r="F84" s="22"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="20"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D85" s="20" t="s">
+      <c r="D85" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E85" s="21"/>
-      <c r="F85" s="22"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D86" s="20" t="s">
+      <c r="D86" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E86" s="21"/>
-      <c r="F86" s="22"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D87" s="3"/>
-      <c r="E87" s="23" t="n">
+      <c r="E87" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="F87" s="22"/>
+      <c r="F87" s="20"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D88" s="20" t="s">
+      <c r="C88" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="21"/>
-      <c r="F88" s="22"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="20"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D89" s="20" t="s">
+      <c r="C89" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E89" s="21"/>
-      <c r="F89" s="22"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="20"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D90" s="20" t="s">
+      <c r="C90" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E90" s="21"/>
-      <c r="F90" s="22"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="20"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91" s="20" t="s">
+      <c r="C91" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E91" s="21"/>
-      <c r="F91" s="22"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="20"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D92" s="20" t="s">
+      <c r="C92" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="21"/>
-      <c r="F92" s="22"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="20"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D93" s="20" t="s">
+      <c r="C93" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E93" s="21"/>
-      <c r="F93" s="22"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="20"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D94" s="20" t="s">
+      <c r="C94" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E94" s="21"/>
-      <c r="F94" s="22"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="20"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D95" s="20" t="s">
+      <c r="C95" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E95" s="21"/>
-      <c r="F95" s="22"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="20"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D96" s="20" t="s">
+      <c r="C96" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E96" s="21"/>
-      <c r="F96" s="22"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="20"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D97" s="20" t="s">
+      <c r="C97" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E97" s="21"/>
-      <c r="F97" s="22"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="20"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" s="20" t="s">
+      <c r="C98" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E98" s="21"/>
-      <c r="F98" s="22"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="20"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D99" s="20" t="s">
+      <c r="C99" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E99" s="21"/>
-      <c r="F99" s="22"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="20"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D100" s="20" t="s">
+      <c r="C100" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E100" s="21"/>
-      <c r="F100" s="22"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="20"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E101" s="21"/>
-      <c r="F101" s="22"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="20"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D102" s="20" t="s">
+      <c r="D102" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E102" s="21"/>
-      <c r="F102" s="22"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="20"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="20" t="s">
+      <c r="D103" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E103" s="21"/>
-      <c r="F103" s="22"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="20"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D104" s="20" t="s">
+      <c r="D104" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E104" s="21"/>
-      <c r="F104" s="22"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="20"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D105" s="20" t="s">
+      <c r="D105" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E105" s="21"/>
-      <c r="F105" s="22"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="20"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D106" s="3"/>
-      <c r="E106" s="23" t="n">
+      <c r="E106" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="F106" s="22"/>
+      <c r="F106" s="20"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D107" s="20" t="s">
+      <c r="C107" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E107" s="21"/>
-      <c r="F107" s="22"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="20"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D108" s="20" t="s">
+      <c r="C108" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D108" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E108" s="21"/>
-      <c r="F108" s="22"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="20"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D109" s="20" t="s">
+      <c r="C109" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E109" s="21"/>
-      <c r="F109" s="22"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="20"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D110" s="20" t="s">
+      <c r="C110" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E110" s="21"/>
-      <c r="F110" s="22"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="20"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D111" s="20" t="s">
+      <c r="C111" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E111" s="21"/>
-      <c r="F111" s="22"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="20"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D112" s="20" t="s">
+      <c r="C112" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E112" s="21"/>
-      <c r="F112" s="22"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="20"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D113" s="20" t="s">
+      <c r="C113" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E113" s="21"/>
-      <c r="F113" s="22"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="20"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D114" s="20" t="s">
+      <c r="C114" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D114" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E114" s="21"/>
-      <c r="F114" s="22"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="20"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D115" s="20" t="s">
+      <c r="C115" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E115" s="21"/>
-      <c r="F115" s="22"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="20"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D116" s="20" t="s">
+      <c r="C116" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E116" s="21"/>
-      <c r="F116" s="22"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="20"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D117" s="3"/>
-      <c r="E117" s="23" t="n">
+      <c r="E117" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="F117" s="22"/>
+      <c r="F117" s="20"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D118" s="20" t="s">
+      <c r="C118" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D118" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E118" s="21"/>
-      <c r="F118" s="22"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="20"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D119" s="20" t="s">
+      <c r="C119" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D119" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E119" s="21"/>
-      <c r="F119" s="22"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="20"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D120" s="20" t="s">
+      <c r="C120" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D120" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E120" s="21"/>
-      <c r="F120" s="22"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="20"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D121" s="20" t="s">
+      <c r="C121" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D121" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E121" s="21"/>
-      <c r="F121" s="22"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="20"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D122" s="20" t="s">
+      <c r="C122" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E122" s="21"/>
-      <c r="F122" s="22"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="20"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D123" s="20" t="s">
+      <c r="C123" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E123" s="21"/>
-      <c r="F123" s="22"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="20"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D124" s="20" t="s">
+      <c r="C124" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D124" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E124" s="21"/>
-      <c r="F124" s="22"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="20"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D125" s="20" t="s">
+      <c r="C125" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D125" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E125" s="21"/>
-      <c r="F125" s="22"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="20"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D126" s="20" t="s">
+      <c r="C126" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D126" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E126" s="21"/>
-      <c r="F126" s="22"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="20"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D127" s="20" t="s">
+      <c r="C127" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D127" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E127" s="21"/>
-      <c r="F127" s="22"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="20"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D128" s="20" t="s">
+      <c r="C128" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D128" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E128" s="21"/>
-      <c r="F128" s="22"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="20"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D129" s="20" t="s">
+      <c r="C129" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D129" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E129" s="21"/>
-      <c r="F129" s="22"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="20"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D130" s="3"/>
-      <c r="E130" s="23" t="n">
+      <c r="E130" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="F130" s="22"/>
+      <c r="F130" s="20"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="22"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="20"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C132" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="23" t="n">
+      <c r="E132" s="21" t="n">
         <f aca="false">(E87+E117+E106+E130)</f>
         <v>45</v>
       </c>
-      <c r="F132" s="22"/>
+      <c r="F132" s="20"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="24" t="s">
+      <c r="C137" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="24"/>
+      <c r="D137" s="22"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="24" t="s">
+      <c r="C171" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D171" s="24"/>
-      <c r="E171" s="15"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="13"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="25" t="s">
+      <c r="C173" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D173" s="26" t="s">
+      <c r="D173" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E173" s="18"/>
+      <c r="E173" s="16"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="20" t="s">
+      <c r="C174" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D174" s="20" t="s">
+      <c r="D174" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E174" s="27" t="n">
+      <c r="E174" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2032,7 +2018,7 @@
       <c r="D175" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E175" s="27" t="n">
+      <c r="E175" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,7 +2029,7 @@
       <c r="D176" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E176" s="27" t="n">
+      <c r="E176" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2054,7 +2040,7 @@
       <c r="D177" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E177" s="27" t="n">
+      <c r="E177" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2065,7 +2051,7 @@
       <c r="D178" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E178" s="27" t="n">
+      <c r="E178" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,18 +2062,18 @@
       <c r="D179" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E179" s="27" t="n">
+      <c r="E179" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="20" t="s">
+      <c r="C180" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D180" s="20" t="s">
+      <c r="D180" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E180" s="27" t="n">
+      <c r="E180" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2098,7 +2084,7 @@
       <c r="D181" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E181" s="27" t="n">
+      <c r="E181" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2095,18 @@
       <c r="D182" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E182" s="27" t="n">
+      <c r="E182" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="20" t="s">
+      <c r="C183" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D183" s="20" t="s">
+      <c r="D183" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E183" s="27" t="n">
+      <c r="E183" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,7 +2117,7 @@
       <c r="D184" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E184" s="27" t="n">
+      <c r="E184" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2139,191 +2125,191 @@
       <c r="C185" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="D185" s="6" t="s">
+      <c r="D185" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E185" s="8" t="n">
+      <c r="E185" s="5" t="n">
         <f aca="false">SUM(E174:E184)</f>
         <v>11</v>
       </c>
-      <c r="F185" s="7" t="s">
+      <c r="F185" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G185" s="7"/>
+      <c r="G185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D186" s="20" t="s">
+      <c r="C186" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D186" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E186" s="27" t="n">
+      <c r="E186" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D187" s="20" t="s">
+      <c r="C187" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D187" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E187" s="27" t="n">
+      <c r="E187" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D188" s="20" t="s">
+      <c r="C188" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D188" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E188" s="27" t="n">
+      <c r="E188" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D189" s="20" t="s">
+      <c r="C189" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D189" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E189" s="27" t="n">
+      <c r="E189" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D190" s="20" t="s">
+      <c r="C190" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D190" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E190" s="27" t="n">
+      <c r="E190" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D191" s="20" t="s">
+      <c r="C191" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D191" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E191" s="27" t="n">
+      <c r="E191" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D192" s="20" t="s">
+      <c r="C192" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D192" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E192" s="27" t="n">
+      <c r="E192" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D193" s="20" t="s">
+      <c r="C193" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D193" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E193" s="27" t="n">
+      <c r="E193" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D194" s="20" t="s">
+      <c r="C194" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D194" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E194" s="27" t="n">
+      <c r="E194" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D195" s="20" t="s">
+      <c r="C195" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D195" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E195" s="27" t="n">
+      <c r="E195" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D196" s="20" t="s">
+      <c r="C196" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D196" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E196" s="27" t="n">
+      <c r="E196" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="20" t="s">
+      <c r="C197" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D197" s="20" t="s">
+      <c r="D197" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E197" s="27" t="n">
+      <c r="E197" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="20" t="s">
+      <c r="C198" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D198" s="20" t="s">
+      <c r="D198" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E198" s="27" t="n">
+      <c r="E198" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="20" t="s">
+      <c r="C199" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D199" s="20" t="s">
+      <c r="D199" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E199" s="27" t="n">
+      <c r="E199" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="20" t="s">
+      <c r="C200" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D200" s="20" t="s">
+      <c r="D200" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E200" s="27" t="n">
+      <c r="E200" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="20" t="s">
+      <c r="C201" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D201" s="20" t="s">
+      <c r="D201" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E201" s="27" t="n">
+      <c r="E201" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2331,114 +2317,114 @@
       <c r="C202" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D202" s="6" t="s">
+      <c r="D202" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E202" s="8" t="n">
+      <c r="E202" s="5" t="n">
         <f aca="false">SUM(E186:E201)</f>
         <v>16</v>
       </c>
-      <c r="F202" s="7" t="s">
+      <c r="F202" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G202" s="7"/>
+      <c r="G202" s="6"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D203" s="20" t="s">
+      <c r="C203" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D203" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E203" s="27" t="n">
-        <v>0.5</v>
+      <c r="E203" s="25" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D204" s="20" t="s">
+      <c r="C204" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D204" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E204" s="27" t="n">
+      <c r="E204" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D205" s="20" t="s">
+      <c r="C205" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D205" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E205" s="27" t="n">
+      <c r="E205" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D206" s="20" t="s">
+      <c r="C206" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D206" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E206" s="27" t="n">
+      <c r="E206" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D207" s="20" t="s">
+      <c r="C207" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D207" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E207" s="27" t="n">
+      <c r="E207" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D208" s="20" t="s">
+      <c r="C208" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D208" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E208" s="27" t="n">
+      <c r="E208" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D209" s="20" t="s">
+      <c r="C209" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D209" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E209" s="27" t="n">
+      <c r="E209" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D210" s="20" t="s">
+      <c r="C210" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D210" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E210" s="27" t="n">
+      <c r="E210" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D211" s="20" t="s">
+      <c r="C211" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D211" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E211" s="27" t="n">
+      <c r="E211" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2446,125 +2432,125 @@
       <c r="C212" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D212" s="6" t="s">
+      <c r="D212" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E212" s="8" t="n">
+      <c r="E212" s="5" t="n">
         <f aca="false">SUM(E203:E211)</f>
-        <v>8.5</v>
-      </c>
-      <c r="F212" s="7" t="s">
+        <v>8.75</v>
+      </c>
+      <c r="F212" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G212" s="7"/>
+      <c r="G212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D213" s="20" t="s">
+      <c r="C213" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D213" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E213" s="27" t="n">
+      <c r="E213" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C214" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D214" s="20" t="s">
+      <c r="C214" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D214" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E214" s="27" t="n">
+      <c r="E214" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D215" s="20" t="s">
+      <c r="C215" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D215" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E215" s="27" t="n">
+      <c r="E215" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C216" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D216" s="20" t="s">
+      <c r="C216" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D216" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E216" s="27" t="n">
+      <c r="E216" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D217" s="20" t="s">
+      <c r="C217" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D217" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E217" s="27" t="n">
+      <c r="E217" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D218" s="20" t="s">
+      <c r="C218" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D218" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E218" s="27" t="n">
+      <c r="E218" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D219" s="20" t="s">
+      <c r="C219" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D219" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E219" s="27" t="n">
+      <c r="E219" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C220" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D220" s="20" t="s">
+      <c r="C220" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D220" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E220" s="27" t="n">
+      <c r="E220" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D221" s="20" t="s">
+      <c r="C221" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D221" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E221" s="27" t="n">
+      <c r="E221" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D222" s="20" t="s">
+      <c r="C222" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D222" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E222" s="27" t="n">
+      <c r="E222" s="25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2572,34 +2558,34 @@
       <c r="C223" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D223" s="6" t="s">
+      <c r="D223" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E223" s="8" t="n">
+      <c r="E223" s="5" t="n">
         <f aca="false">SUM(E213:E222)/2</f>
         <v>2.5</v>
       </c>
-      <c r="F223" s="7" t="s">
+      <c r="F223" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G223" s="7"/>
+      <c r="G223" s="6"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C225" s="3" t="n">
         <f aca="false">(C185+C202+C212+C223)</f>
         <v>41</v>
       </c>
-      <c r="D225" s="6" t="s">
+      <c r="D225" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E225" s="3" t="n">
         <f aca="false">(E185+E202+E212+E223)</f>
-        <v>38</v>
-      </c>
-      <c r="F225" s="7" t="s">
+        <v>38.25</v>
+      </c>
+      <c r="F225" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G225" s="7"/>
+      <c r="G225" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2636,743 +2622,743 @@
       <selection pane="topLeft" activeCell="C132" activeCellId="0" sqref="C132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="6.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="25.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="73.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="18.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="49.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="6.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="25.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="73.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="49.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="7" width="20.01"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="10" t="s">
+    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" s="9" customFormat="true" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" s="7" customFormat="true" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="10" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="12" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="13" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="14"/>
-      <c r="E73" s="15"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="75" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="18"/>
-      <c r="F75" s="19"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="17"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D76" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E76" s="21"/>
-      <c r="F76" s="22"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="20"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E77" s="21"/>
-      <c r="F77" s="22"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D78" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E78" s="21"/>
-      <c r="F78" s="22"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="20"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="20" t="s">
+      <c r="D79" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E79" s="21"/>
-      <c r="F79" s="22"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="20" t="s">
+      <c r="D80" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E80" s="21"/>
-      <c r="F80" s="22"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E81" s="21"/>
-      <c r="F81" s="22"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="20"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="20" t="s">
+      <c r="D82" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E82" s="21"/>
-      <c r="F82" s="22"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="20"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E83" s="21"/>
-      <c r="F83" s="22"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="20"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="20" t="s">
+      <c r="D84" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E84" s="21"/>
-      <c r="F84" s="22"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="20"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D85" s="20" t="s">
+      <c r="D85" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E85" s="21"/>
-      <c r="F85" s="22"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D86" s="20" t="s">
+      <c r="D86" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E86" s="21"/>
-      <c r="F86" s="22"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D87" s="3"/>
-      <c r="E87" s="23" t="n">
+      <c r="E87" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="F87" s="22"/>
+      <c r="F87" s="20"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D88" s="20" t="s">
+      <c r="C88" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E88" s="21"/>
-      <c r="F88" s="22"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="20"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D89" s="20" t="s">
+      <c r="C89" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E89" s="21"/>
-      <c r="F89" s="22"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="20"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D90" s="20" t="s">
+      <c r="C90" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E90" s="21"/>
-      <c r="F90" s="22"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="20"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D91" s="20" t="s">
+      <c r="C91" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E91" s="21"/>
-      <c r="F91" s="22"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="20"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D92" s="20" t="s">
+      <c r="C92" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="21"/>
-      <c r="F92" s="22"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="20"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D93" s="20" t="s">
+      <c r="C93" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E93" s="21"/>
-      <c r="F93" s="22"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="20"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D94" s="20" t="s">
+      <c r="C94" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E94" s="21"/>
-      <c r="F94" s="22"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="20"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D95" s="20" t="s">
+      <c r="C95" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E95" s="21"/>
-      <c r="F95" s="22"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="20"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D96" s="20" t="s">
+      <c r="C96" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E96" s="21"/>
-      <c r="F96" s="22"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="20"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D97" s="20" t="s">
+      <c r="C97" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E97" s="21"/>
-      <c r="F97" s="22"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="20"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D98" s="20" t="s">
+      <c r="C98" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E98" s="21"/>
-      <c r="F98" s="22"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="20"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D99" s="20" t="s">
+      <c r="C99" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E99" s="21"/>
-      <c r="F99" s="22"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="20"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D100" s="20" t="s">
+      <c r="C100" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E100" s="21"/>
-      <c r="F100" s="22"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="20"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E101" s="21"/>
-      <c r="F101" s="22"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="20"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D102" s="20" t="s">
+      <c r="D102" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E102" s="21"/>
-      <c r="F102" s="22"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="20"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="20" t="s">
+      <c r="D103" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E103" s="21"/>
-      <c r="F103" s="22"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="20"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D104" s="20" t="s">
+      <c r="D104" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E104" s="21"/>
-      <c r="F104" s="22"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="20"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D105" s="20" t="s">
+      <c r="D105" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E105" s="21"/>
-      <c r="F105" s="22"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="20"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D106" s="3"/>
-      <c r="E106" s="23" t="n">
+      <c r="E106" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="F106" s="22"/>
+      <c r="F106" s="20"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D107" s="20" t="s">
+      <c r="C107" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E107" s="21"/>
-      <c r="F107" s="22"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="20"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D108" s="20" t="s">
+      <c r="C108" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D108" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E108" s="21"/>
-      <c r="F108" s="22"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="20"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D109" s="20" t="s">
+      <c r="C109" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E109" s="21"/>
-      <c r="F109" s="22"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="20"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D110" s="20" t="s">
+      <c r="C110" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E110" s="21"/>
-      <c r="F110" s="22"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="20"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D111" s="20" t="s">
+      <c r="C111" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E111" s="21"/>
-      <c r="F111" s="22"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="20"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D112" s="20" t="s">
+      <c r="C112" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E112" s="21"/>
-      <c r="F112" s="22"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="20"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D113" s="20" t="s">
+      <c r="C113" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E113" s="21"/>
-      <c r="F113" s="22"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="20"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D114" s="20" t="s">
+      <c r="C114" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D114" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E114" s="21"/>
-      <c r="F114" s="22"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="20"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D115" s="20" t="s">
+      <c r="C115" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E115" s="21"/>
-      <c r="F115" s="22"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="20"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C116" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D116" s="20" t="s">
+      <c r="C116" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E116" s="21"/>
-      <c r="F116" s="22"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="20"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C117" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D117" s="3"/>
-      <c r="E117" s="23" t="n">
+      <c r="E117" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="F117" s="22"/>
+      <c r="F117" s="20"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D118" s="20" t="s">
+      <c r="C118" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D118" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E118" s="21"/>
-      <c r="F118" s="22"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="20"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D119" s="20" t="s">
+      <c r="C119" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D119" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E119" s="21"/>
-      <c r="F119" s="22"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="20"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D120" s="20" t="s">
+      <c r="C120" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D120" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E120" s="21"/>
-      <c r="F120" s="22"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="20"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D121" s="20" t="s">
+      <c r="C121" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D121" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E121" s="21"/>
-      <c r="F121" s="22"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="20"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D122" s="20" t="s">
+      <c r="C122" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E122" s="21"/>
-      <c r="F122" s="22"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="20"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D123" s="20" t="s">
+      <c r="C123" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E123" s="21"/>
-      <c r="F123" s="22"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="20"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D124" s="20" t="s">
+      <c r="C124" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D124" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E124" s="21"/>
-      <c r="F124" s="22"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="20"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D125" s="20" t="s">
+      <c r="C125" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D125" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E125" s="21"/>
-      <c r="F125" s="22"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="20"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D126" s="20" t="s">
+      <c r="C126" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D126" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E126" s="21"/>
-      <c r="F126" s="22"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="20"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D127" s="20" t="s">
+      <c r="C127" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D127" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E127" s="21"/>
-      <c r="F127" s="22"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="20"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D128" s="20" t="s">
+      <c r="C128" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D128" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E128" s="21"/>
-      <c r="F128" s="22"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="20"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D129" s="20" t="s">
+      <c r="C129" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D129" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E129" s="21"/>
-      <c r="F129" s="22"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="20"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C130" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D130" s="3"/>
-      <c r="E130" s="23" t="n">
+      <c r="E130" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="F130" s="22"/>
+      <c r="F130" s="20"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="22"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="20"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C132" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="23" t="n">
+      <c r="E132" s="21" t="n">
         <f aca="false">(E87+E117+E106+E130)</f>
         <v>45</v>
       </c>
-      <c r="F132" s="22"/>
+      <c r="F132" s="20"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="24" t="s">
+      <c r="C137" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D137" s="24"/>
+      <c r="D137" s="22"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="24" t="s">
+      <c r="C175" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D175" s="24"/>
-      <c r="E175" s="15"/>
+      <c r="D175" s="22"/>
+      <c r="E175" s="13"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C177" s="25" t="s">
+      <c r="C177" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D177" s="26" t="s">
+      <c r="D177" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E177" s="18"/>
+      <c r="E177" s="16"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C178" s="20" t="s">
+      <c r="C178" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D178" s="20" t="s">
+      <c r="D178" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E178" s="27" t="n">
+      <c r="E178" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3383,7 +3369,7 @@
       <c r="D179" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E179" s="27" t="n">
+      <c r="E179" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,7 +3380,7 @@
       <c r="D180" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E180" s="27" t="n">
+      <c r="E180" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3405,7 +3391,7 @@
       <c r="D181" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E181" s="27" t="n">
+      <c r="E181" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3416,7 +3402,7 @@
       <c r="D182" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E182" s="27" t="n">
+      <c r="E182" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3427,18 +3413,18 @@
       <c r="D183" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E183" s="27" t="n">
+      <c r="E183" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="20" t="s">
+      <c r="C184" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D184" s="20" t="s">
+      <c r="D184" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E184" s="27" t="n">
+      <c r="E184" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3449,7 +3435,7 @@
       <c r="D185" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E185" s="27" t="n">
+      <c r="E185" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3460,7 +3446,7 @@
       <c r="D186" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E186" s="27" t="n">
+      <c r="E186" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3468,10 +3454,10 @@
       <c r="C187" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D187" s="20" t="s">
+      <c r="D187" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E187" s="27" t="n">
+      <c r="E187" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3479,21 +3465,21 @@
       <c r="C188" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D188" s="20" t="s">
+      <c r="D188" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E188" s="27" t="n">
+      <c r="E188" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="20" t="s">
+      <c r="C189" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D189" s="20" t="s">
+      <c r="D189" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E189" s="27" t="n">
+      <c r="E189" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3504,7 +3490,7 @@
       <c r="D190" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E190" s="27" t="n">
+      <c r="E190" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3512,136 +3498,136 @@
       <c r="C191" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="D191" s="6" t="s">
+      <c r="D191" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E191" s="8" t="n">
+      <c r="E191" s="5" t="n">
         <f aca="false">SUM(E178:E190)</f>
         <v>13</v>
       </c>
-      <c r="F191" s="7" t="s">
+      <c r="F191" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G191" s="7"/>
+      <c r="G191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D192" s="20" t="s">
+      <c r="C192" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D192" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E192" s="27" t="n">
+      <c r="E192" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D193" s="20" t="s">
+      <c r="C193" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D193" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E193" s="27" t="n">
+      <c r="E193" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D194" s="20" t="s">
+      <c r="C194" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D194" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E194" s="27" t="n">
+      <c r="E194" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D195" s="20" t="s">
+      <c r="C195" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D195" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E195" s="27" t="n">
+      <c r="E195" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D196" s="20" t="s">
+      <c r="C196" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D196" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E196" s="27" t="n">
+      <c r="E196" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D197" s="20" t="s">
+      <c r="C197" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D197" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E197" s="27" t="n">
+      <c r="E197" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D198" s="20" t="s">
+      <c r="C198" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D198" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E198" s="27" t="n">
+      <c r="E198" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D199" s="20" t="s">
+      <c r="C199" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D199" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E199" s="27" t="n">
+      <c r="E199" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D200" s="20" t="s">
+      <c r="C200" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D200" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E200" s="27" t="n">
+      <c r="E200" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D201" s="20" t="s">
+      <c r="C201" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D201" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E201" s="27" t="n">
+      <c r="E201" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D202" s="20" t="s">
+      <c r="C202" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D202" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E202" s="27" t="n">
+      <c r="E202" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,147 +3635,147 @@
       <c r="C203" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="D203" s="6" t="s">
+      <c r="D203" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E203" s="8" t="n">
+      <c r="E203" s="5" t="n">
         <f aca="false">SUM(E192:E202)</f>
         <v>11</v>
       </c>
-      <c r="F203" s="7" t="s">
+      <c r="F203" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G203" s="7"/>
+      <c r="G203" s="6"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D204" s="20" t="s">
+      <c r="C204" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D204" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E204" s="27" t="n">
+      <c r="E204" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D205" s="20" t="s">
+      <c r="C205" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D205" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E205" s="27" t="n">
+      <c r="E205" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D206" s="20" t="s">
+      <c r="C206" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D206" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E206" s="27" t="n">
+      <c r="E206" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D207" s="20" t="s">
+      <c r="C207" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D207" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E207" s="27" t="n">
+      <c r="E207" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D208" s="20" t="s">
+      <c r="C208" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D208" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E208" s="27" t="n">
+      <c r="E208" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D209" s="20" t="s">
+      <c r="C209" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D209" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E209" s="27" t="n">
+      <c r="E209" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D210" s="20" t="s">
+      <c r="C210" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D210" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E210" s="27" t="n">
+      <c r="E210" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D211" s="20" t="s">
+      <c r="C211" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D211" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E211" s="27" t="n">
+      <c r="E211" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D212" s="20" t="s">
+      <c r="C212" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D212" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E212" s="27" t="n">
+      <c r="E212" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D213" s="20" t="s">
+      <c r="C213" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D213" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E213" s="27" t="n">
+      <c r="E213" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C214" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D214" s="20" t="s">
+      <c r="C214" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D214" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E214" s="27" t="n">
+      <c r="E214" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D215" s="20" t="s">
+      <c r="C215" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D215" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E215" s="27" t="n">
+      <c r="E215" s="25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3797,125 +3783,125 @@
       <c r="C216" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D216" s="6" t="s">
+      <c r="D216" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E216" s="8" t="n">
+      <c r="E216" s="5" t="n">
         <f aca="false">SUM(E204:E215)</f>
         <v>12</v>
       </c>
-      <c r="F216" s="7" t="s">
+      <c r="F216" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G216" s="7"/>
+      <c r="G216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D217" s="20" t="s">
+      <c r="C217" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D217" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E217" s="27" t="n">
+      <c r="E217" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D218" s="20" t="s">
+      <c r="C218" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D218" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E218" s="27" t="n">
+      <c r="E218" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D219" s="20" t="s">
+      <c r="C219" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D219" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E219" s="27" t="n">
+      <c r="E219" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C220" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D220" s="20" t="s">
+      <c r="C220" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D220" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E220" s="27" t="n">
+      <c r="E220" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D221" s="20" t="s">
+      <c r="C221" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D221" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E221" s="27" t="n">
+      <c r="E221" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D222" s="20" t="s">
+      <c r="C222" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D222" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E222" s="27" t="n">
+      <c r="E222" s="25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D223" s="20" t="s">
+      <c r="C223" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D223" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E223" s="27" t="n">
+      <c r="E223" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D224" s="20" t="s">
+      <c r="C224" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D224" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E224" s="27" t="n">
+      <c r="E224" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D225" s="20" t="s">
+      <c r="C225" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D225" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E225" s="27" t="n">
+      <c r="E225" s="25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D226" s="20" t="s">
+      <c r="C226" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D226" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E226" s="27" t="n">
+      <c r="E226" s="25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3923,34 +3909,34 @@
       <c r="C227" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D227" s="6" t="s">
+      <c r="D227" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E227" s="8" t="n">
+      <c r="E227" s="5" t="n">
         <f aca="false">SUM(E217:E226)/2</f>
         <v>2.5</v>
       </c>
-      <c r="F227" s="7" t="s">
+      <c r="F227" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G227" s="7"/>
+      <c r="G227" s="6"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C229" s="3" t="n">
         <f aca="false">(C191+C203+C216+C227)</f>
         <v>41</v>
       </c>
-      <c r="D229" s="6" t="s">
+      <c r="D229" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E229" s="3" t="n">
         <f aca="false">(E191+E203+E216+E227)</f>
         <v>38.5</v>
       </c>
-      <c r="F229" s="7" t="s">
+      <c r="F229" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G229" s="7"/>
+      <c r="G229" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/evaluation-metrics/evaluation-sheet-2.xlsx
+++ b/evaluation-metrics/evaluation-sheet-2.xlsx
@@ -36,7 +36,7 @@
     <t xml:space="preserve">3. Modeller compares the “total retrieved concepts (TP+FP)” with the “ground truth – total relevant concepts (TP+FN)”  to determine which are the “retrieved relevant concepts (TP)”. We count these outcomes (1 for correct outcome, 0.5 for partially correct, and 0 for incorrect). If two outcomes represent one outcome in ground truth or vice-versa then we scale them accordingly.</t>
   </si>
   <si>
-    <t xml:space="preserve">4. For “Adds a new sentence at the end” or "Remove the sentence" actions, modeller updates the problem description by clicking the “Update Problem Description” button and updating the problem description in "Domain Problem Description" box. After updating the problem description, the modeller extracts domain model and evaluate the bot's responses (r2). Modeller follows the same method to calculate total TP + FP and TP for response type r2 as explained in Step 3 and Step 4.</t>
+    <t xml:space="preserve">4. For “Adds a new sentence at the end” or "Remove the sentence" actions, modeller updates the problem description by clicking the “Update Problem Description” button and updating the problem description in the "Domain Problem Description" box. After updating the problem description, the modeller extracts domain model and evaluates the bot's responses (r2). Modeller follows the same method to calculate total TP + FP and TP for response type r2 as explained in Step 3 and Step 4.</t>
   </si>
   <si>
     <t xml:space="preserve">5. Modeller makes modifications in the extracted domain model if the configurations in the extracted domain model are not the same as the expected configurations. Next, the modeller counts the steps performed to make these modifications (MS1 in activity 1 and MS2 in activity2)</t>
@@ -735,9 +735,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2474640</xdr:colOff>
+      <xdr:colOff>2474280</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -751,7 +751,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="266760" y="2024640"/>
-          <a:ext cx="5836680" cy="4424040"/>
+          <a:ext cx="5836320" cy="4423680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -772,9 +772,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1023120</xdr:colOff>
+      <xdr:colOff>1022760</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -788,7 +788,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6786000" y="1989000"/>
-          <a:ext cx="5809680" cy="4516560"/>
+          <a:ext cx="5809320" cy="4516200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -809,9 +809,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1208160</xdr:colOff>
+      <xdr:colOff>1207800</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -825,7 +825,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1547640" y="7779240"/>
-          <a:ext cx="8449200" cy="4398480"/>
+          <a:ext cx="8448840" cy="4398120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -846,9 +846,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>355680</xdr:colOff>
+      <xdr:colOff>355320</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -862,7 +862,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1694880" y="23348160"/>
-          <a:ext cx="8743680" cy="4606200"/>
+          <a:ext cx="8743320" cy="4605840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -888,9 +888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2474640</xdr:colOff>
+      <xdr:colOff>2474280</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -904,7 +904,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="266760" y="2024640"/>
-          <a:ext cx="5836680" cy="4424040"/>
+          <a:ext cx="5836320" cy="4423680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -925,9 +925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1023120</xdr:colOff>
+      <xdr:colOff>1022760</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -941,7 +941,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6786000" y="1989000"/>
-          <a:ext cx="5809680" cy="4516560"/>
+          <a:ext cx="5809320" cy="4516200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -962,9 +962,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1208160</xdr:colOff>
+      <xdr:colOff>1207800</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -978,7 +978,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1547640" y="7779240"/>
-          <a:ext cx="8449200" cy="4398480"/>
+          <a:ext cx="8448840" cy="4398120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -999,9 +999,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>355680</xdr:colOff>
+      <xdr:colOff>355320</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1015,7 +1015,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1694880" y="23348160"/>
-          <a:ext cx="8743680" cy="4606200"/>
+          <a:ext cx="8743320" cy="4605840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1038,15 +1038,15 @@
   <dimension ref="B3:F28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="37.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="45.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="45.04"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,7 +1271,7 @@
       <selection pane="topLeft" activeCell="F208" activeCellId="0" sqref="F208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.45"/>
@@ -2622,7 +2622,7 @@
       <selection pane="topLeft" activeCell="C132" activeCellId="0" sqref="C132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.45"/>
